--- a/Squads/I1/Lecce_Atalanta_squad.xlsx
+++ b/Squads/I1/Lecce_Atalanta_squad.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="253">
   <si>
     <t>Rk</t>
   </si>
@@ -90,595 +90,607 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>2042</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2133</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>2441</t>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2159</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>2473</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>1082</t>
-  </si>
-  <si>
-    <t>1277</t>
-  </si>
-  <si>
-    <t>2641</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>2035</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2358</t>
-  </si>
-  <si>
-    <t>1266</t>
+    <t>196</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>696</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1292</t>
+  </si>
+  <si>
+    <t>2675</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>2176</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>2488</t>
+  </si>
+  <si>
+    <t>2556</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>1669</t>
+  </si>
+  <si>
+    <t>2253</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>799</t>
   </si>
   <si>
     <t>1407</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>1877</t>
-  </si>
-  <si>
-    <t>1917</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>2456</t>
-  </si>
-  <si>
-    <t>2522</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>1649</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>1389</t>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>1750</t>
+  </si>
+  <si>
+    <t>1774</t>
+  </si>
+  <si>
+    <t>2164</t>
+  </si>
+  <si>
+    <t>Ylber Ramadani</t>
+  </si>
+  <si>
+    <t>Marin Pongračić</t>
+  </si>
+  <si>
+    <t>Marten de Roon</t>
+  </si>
+  <si>
+    <t>Éderson</t>
+  </si>
+  <si>
+    <t>Patrick Dorgu</t>
+  </si>
+  <si>
+    <t>Joan Gonzàlez</t>
+  </si>
+  <si>
+    <t>Rafael Tolói</t>
+  </si>
+  <si>
+    <t>Pontus Almqvist</t>
+  </si>
+  <si>
+    <t>Lameck Banda</t>
+  </si>
+  <si>
+    <t>Valentin Gendrey</t>
+  </si>
+  <si>
+    <t>Roberto Piccoli</t>
+  </si>
+  <si>
+    <t>Berat Djimsiti</t>
+  </si>
+  <si>
+    <t>Hans Hateboer</t>
+  </si>
+  <si>
+    <t>Emil Holm</t>
+  </si>
+  <si>
+    <t>Teun Koopmeiners</t>
+  </si>
+  <si>
+    <t>Davide Zappacosta</t>
+  </si>
+  <si>
+    <t>Alexis Blin</t>
+  </si>
+  <si>
+    <t>Mohamed Kaba</t>
+  </si>
+  <si>
+    <t>Nikola Krstović</t>
+  </si>
+  <si>
+    <t>Hamza Rafia</t>
+  </si>
+  <si>
+    <t>Nicola Sansone</t>
+  </si>
+  <si>
+    <t>Gabriel Strefezza</t>
+  </si>
+  <si>
+    <t>Sead Kolašinac</t>
+  </si>
+  <si>
+    <t>Ademola Lookman</t>
+  </si>
+  <si>
+    <t>Federico Baschirotto</t>
+  </si>
+  <si>
+    <t>Remi Oudin</t>
+  </si>
+  <si>
+    <t>Mario Pašalić</t>
+  </si>
+  <si>
+    <t>Matteo Ruggeri</t>
+  </si>
+  <si>
+    <t>Giorgio Scalvini</t>
+  </si>
+  <si>
+    <t>Antonino Gallo</t>
+  </si>
+  <si>
+    <t>El Bilal Touré</t>
+  </si>
+  <si>
+    <t>Ahmed Touba</t>
+  </si>
+  <si>
+    <t>Lorenzo Venuti</t>
+  </si>
+  <si>
+    <t>Mitchel Bakker</t>
+  </si>
+  <si>
+    <t>Charles De Ketelaere</t>
+  </si>
+  <si>
+    <t>Aleksei Miranchuk</t>
+  </si>
+  <si>
+    <t>Gianluca Scamacca</t>
+  </si>
+  <si>
+    <t>Medon Berisha</t>
+  </si>
+  <si>
+    <t>Rareș-Cătălin Burnete</t>
+  </si>
+  <si>
+    <t>Jeppe Corfitzen</t>
+  </si>
+  <si>
+    <t>Federico Di Francesco</t>
+  </si>
+  <si>
+    <t>Wladimiro Falcone</t>
+  </si>
+  <si>
+    <t>Marcin Listkowski</t>
+  </si>
+  <si>
+    <t>Santiago Pierotti</t>
+  </si>
+  <si>
+    <t>Giovanni Bonfanti</t>
+  </si>
+  <si>
+    <t>Marco Carnesecchi</t>
+  </si>
+  <si>
+    <t>José Luis Palomino</t>
+  </si>
+  <si>
+    <t>Leonardo Mendicino</t>
+  </si>
+  <si>
+    <t>Luis Muriel</t>
+  </si>
+  <si>
+    <t>Juan Musso</t>
+  </si>
+  <si>
+    <t>Michel Ndary Adopo</t>
+  </si>
+  <si>
+    <t>Francesco Rossi</t>
+  </si>
+  <si>
+    <t>al ALB</t>
+  </si>
+  <si>
+    <t>hr CRO</t>
+  </si>
+  <si>
+    <t>nl NED</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>dk DEN</t>
+  </si>
+  <si>
+    <t>es ESP</t>
+  </si>
+  <si>
+    <t>it ITA</t>
+  </si>
+  <si>
+    <t>se SWE</t>
+  </si>
+  <si>
+    <t>zm ZAM</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>me MNE</t>
+  </si>
+  <si>
+    <t>tn TUN</t>
+  </si>
+  <si>
+    <t>ba BIH</t>
+  </si>
+  <si>
+    <t>ng NGA</t>
+  </si>
+  <si>
+    <t>ml MLI</t>
+  </si>
+  <si>
+    <t>dz ALG</t>
+  </si>
+  <si>
+    <t>be BEL</t>
+  </si>
+  <si>
+    <t>ru RUS</t>
+  </si>
+  <si>
+    <t>ro ROU</t>
+  </si>
+  <si>
+    <t>pl POL</t>
+  </si>
+  <si>
+    <t>ar ARG</t>
+  </si>
+  <si>
+    <t>co COL</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>DF,MF</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>it Serie A</t>
+  </si>
+  <si>
+    <t>28-045</t>
+  </si>
+  <si>
+    <t>26-259</t>
+  </si>
+  <si>
+    <t>33-059</t>
+  </si>
+  <si>
+    <t>24-325</t>
+  </si>
+  <si>
+    <t>19-214</t>
+  </si>
+  <si>
+    <t>22-116</t>
+  </si>
+  <si>
+    <t>33-230</t>
+  </si>
+  <si>
+    <t>24-322</t>
+  </si>
+  <si>
+    <t>23-119</t>
+  </si>
+  <si>
+    <t>23-341</t>
+  </si>
+  <si>
+    <t>23-121</t>
+  </si>
+  <si>
+    <t>31-098</t>
+  </si>
+  <si>
+    <t>30-139</t>
+  </si>
+  <si>
+    <t>24-014</t>
+  </si>
+  <si>
+    <t>26-089</t>
+  </si>
+  <si>
+    <t>31-351</t>
+  </si>
+  <si>
+    <t>27-254</t>
+  </si>
+  <si>
+    <t>22-213</t>
+  </si>
+  <si>
+    <t>24-052</t>
+  </si>
+  <si>
+    <t>25-055</t>
+  </si>
+  <si>
+    <t>32-260</t>
+  </si>
+  <si>
+    <t>27-039</t>
+  </si>
+  <si>
+    <t>30-342</t>
+  </si>
+  <si>
+    <t>26-220</t>
+  </si>
+  <si>
+    <t>27-250</t>
+  </si>
+  <si>
+    <t>27-191</t>
+  </si>
+  <si>
+    <t>29-108</t>
+  </si>
+  <si>
+    <t>21-321</t>
+  </si>
+  <si>
+    <t>20-168</t>
+  </si>
+  <si>
+    <t>24-143</t>
+  </si>
+  <si>
+    <t>22-237</t>
+  </si>
+  <si>
+    <t>26-076</t>
+  </si>
+  <si>
+    <t>29-045</t>
+  </si>
+  <si>
+    <t>23-342</t>
+  </si>
+  <si>
+    <t>23-078</t>
+  </si>
+  <si>
+    <t>28-223</t>
+  </si>
+  <si>
+    <t>25-147</t>
+  </si>
+  <si>
+    <t>20-219</t>
+  </si>
+  <si>
+    <t>20-117</t>
+  </si>
+  <si>
+    <t>19-150</t>
+  </si>
+  <si>
+    <t>29-348</t>
+  </si>
+  <si>
+    <t>26-107</t>
+  </si>
+  <si>
+    <t>23-054</t>
+  </si>
+  <si>
+    <t>21-131</t>
+  </si>
+  <si>
+    <t>23-331</t>
+  </si>
+  <si>
+    <t>34-143</t>
+  </si>
+  <si>
+    <t>17-337</t>
+  </si>
+  <si>
+    <t>33-041</t>
+  </si>
+  <si>
+    <t>30-021</t>
+  </si>
+  <si>
+    <t>23-313</t>
+  </si>
+  <si>
+    <t>33-030</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1998</t>
   </si>
   <si>
     <t>1992</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>1432</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1721</t>
-  </si>
-  <si>
-    <t>1729</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>Ylber Ramadani</t>
-  </si>
-  <si>
-    <t>Marin Pongračić</t>
-  </si>
-  <si>
-    <t>Marten de Roon</t>
-  </si>
-  <si>
-    <t>Éderson</t>
-  </si>
-  <si>
-    <t>Patrick Dorgu</t>
-  </si>
-  <si>
-    <t>Joan Gonzàlez</t>
-  </si>
-  <si>
-    <t>Rafael Tolói</t>
-  </si>
-  <si>
-    <t>Pontus Almqvist</t>
-  </si>
-  <si>
-    <t>Lameck Banda</t>
-  </si>
-  <si>
-    <t>Valentin Gendrey</t>
-  </si>
-  <si>
-    <t>Roberto Piccoli</t>
-  </si>
-  <si>
-    <t>Berat Djimsiti</t>
-  </si>
-  <si>
-    <t>Hans Hateboer</t>
-  </si>
-  <si>
-    <t>Emil Holm</t>
-  </si>
-  <si>
-    <t>Teun Koopmeiners</t>
-  </si>
-  <si>
-    <t>Davide Zappacosta</t>
-  </si>
-  <si>
-    <t>Alexis Blin</t>
-  </si>
-  <si>
-    <t>Mohamed Kaba</t>
-  </si>
-  <si>
-    <t>Nikola Krstović</t>
-  </si>
-  <si>
-    <t>Hamza Rafia</t>
-  </si>
-  <si>
-    <t>Nicola Sansone</t>
-  </si>
-  <si>
-    <t>Gabriel Strefezza</t>
-  </si>
-  <si>
-    <t>Sead Kolašinac</t>
-  </si>
-  <si>
-    <t>Ademola Lookman</t>
-  </si>
-  <si>
-    <t>Federico Baschirotto</t>
-  </si>
-  <si>
-    <t>Remi Oudin</t>
-  </si>
-  <si>
-    <t>Mario Pašalić</t>
-  </si>
-  <si>
-    <t>Matteo Ruggeri</t>
-  </si>
-  <si>
-    <t>Giorgio Scalvini</t>
-  </si>
-  <si>
-    <t>Antonino Gallo</t>
-  </si>
-  <si>
-    <t>El Bilal Touré</t>
-  </si>
-  <si>
-    <t>Ahmed Touba</t>
-  </si>
-  <si>
-    <t>Lorenzo Venuti</t>
-  </si>
-  <si>
-    <t>Mitchel Bakker</t>
-  </si>
-  <si>
-    <t>Charles De Ketelaere</t>
-  </si>
-  <si>
-    <t>Aleksei Miranchuk</t>
-  </si>
-  <si>
-    <t>Gianluca Scamacca</t>
-  </si>
-  <si>
-    <t>Medon Berisha</t>
-  </si>
-  <si>
-    <t>Rareș-Cătălin Burnete</t>
-  </si>
-  <si>
-    <t>Jeppe Corfitzen</t>
-  </si>
-  <si>
-    <t>Federico Di Francesco</t>
-  </si>
-  <si>
-    <t>Wladimiro Falcone</t>
-  </si>
-  <si>
-    <t>Marcin Listkowski</t>
-  </si>
-  <si>
-    <t>Santiago Pierotti</t>
-  </si>
-  <si>
-    <t>Giovanni Bonfanti</t>
-  </si>
-  <si>
-    <t>Marco Carnesecchi</t>
-  </si>
-  <si>
-    <t>José Luis Palomino</t>
-  </si>
-  <si>
-    <t>Leonardo Mendicino</t>
-  </si>
-  <si>
-    <t>Luis Muriel</t>
-  </si>
-  <si>
-    <t>Juan Musso</t>
-  </si>
-  <si>
-    <t>Michel Ndary Adopo</t>
-  </si>
-  <si>
-    <t>al ALB</t>
-  </si>
-  <si>
-    <t>hr CRO</t>
-  </si>
-  <si>
-    <t>nl NED</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>dk DEN</t>
-  </si>
-  <si>
-    <t>es ESP</t>
-  </si>
-  <si>
-    <t>it ITA</t>
-  </si>
-  <si>
-    <t>se SWE</t>
-  </si>
-  <si>
-    <t>zm ZAM</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>me MNE</t>
-  </si>
-  <si>
-    <t>tn TUN</t>
-  </si>
-  <si>
-    <t>ba BIH</t>
-  </si>
-  <si>
-    <t>ng NGA</t>
-  </si>
-  <si>
-    <t>ml MLI</t>
-  </si>
-  <si>
-    <t>dz ALG</t>
-  </si>
-  <si>
-    <t>be BEL</t>
-  </si>
-  <si>
-    <t>ru RUS</t>
-  </si>
-  <si>
-    <t>ro ROU</t>
-  </si>
-  <si>
-    <t>pl POL</t>
-  </si>
-  <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
-    <t>co COL</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
-    <t>DF,MF</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>it Serie A</t>
-  </si>
-  <si>
-    <t>28-037</t>
-  </si>
-  <si>
-    <t>26-251</t>
-  </si>
-  <si>
-    <t>33-051</t>
-  </si>
-  <si>
-    <t>24-317</t>
-  </si>
-  <si>
-    <t>19-206</t>
-  </si>
-  <si>
-    <t>22-108</t>
-  </si>
-  <si>
-    <t>33-222</t>
-  </si>
-  <si>
-    <t>24-314</t>
-  </si>
-  <si>
-    <t>23-111</t>
-  </si>
-  <si>
-    <t>23-333</t>
-  </si>
-  <si>
-    <t>23-113</t>
-  </si>
-  <si>
-    <t>31-090</t>
-  </si>
-  <si>
-    <t>30-131</t>
-  </si>
-  <si>
-    <t>24-006</t>
-  </si>
-  <si>
-    <t>26-081</t>
-  </si>
-  <si>
-    <t>31-343</t>
-  </si>
-  <si>
-    <t>27-246</t>
-  </si>
-  <si>
-    <t>22-205</t>
-  </si>
-  <si>
-    <t>24-044</t>
-  </si>
-  <si>
-    <t>25-047</t>
-  </si>
-  <si>
-    <t>32-252</t>
-  </si>
-  <si>
-    <t>27-031</t>
-  </si>
-  <si>
-    <t>30-334</t>
-  </si>
-  <si>
-    <t>26-212</t>
-  </si>
-  <si>
-    <t>27-242</t>
-  </si>
-  <si>
-    <t>27-183</t>
-  </si>
-  <si>
-    <t>29-100</t>
-  </si>
-  <si>
-    <t>21-313</t>
-  </si>
-  <si>
-    <t>20-160</t>
-  </si>
-  <si>
-    <t>24-135</t>
-  </si>
-  <si>
-    <t>22-229</t>
-  </si>
-  <si>
-    <t>26-068</t>
-  </si>
-  <si>
-    <t>29-037</t>
-  </si>
-  <si>
-    <t>23-334</t>
-  </si>
-  <si>
-    <t>23-070</t>
-  </si>
-  <si>
-    <t>28-215</t>
-  </si>
-  <si>
-    <t>25-139</t>
-  </si>
-  <si>
-    <t>20-211</t>
-  </si>
-  <si>
-    <t>20-109</t>
-  </si>
-  <si>
-    <t>19-142</t>
-  </si>
-  <si>
-    <t>29-340</t>
-  </si>
-  <si>
-    <t>26-099</t>
-  </si>
-  <si>
-    <t>23-046</t>
-  </si>
-  <si>
-    <t>21-123</t>
-  </si>
-  <si>
-    <t>23-323</t>
-  </si>
-  <si>
-    <t>34-135</t>
-  </si>
-  <si>
-    <t>17-329</t>
-  </si>
-  <si>
-    <t>33-033</t>
-  </si>
-  <si>
-    <t>30-013</t>
-  </si>
-  <si>
-    <t>23-305</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1998</t>
   </si>
   <si>
     <t>1995</t>
@@ -893,31 +905,31 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2155.0</v>
+        <v>2181.0</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K2" t="n">
         <v>13.0</v>
@@ -929,10 +941,10 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
@@ -944,7 +956,7 @@
         <v>44.0</v>
       </c>
       <c r="S2" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="T2" t="n">
         <v>0.0</v>
@@ -956,7 +968,7 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>219.0</v>
+        <v>225.0</v>
       </c>
       <c r="X2" t="n">
         <v>29.0</v>
@@ -973,31 +985,31 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>2118.0</v>
+        <v>2144.0</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="K3" t="n">
         <v>10.0</v>
@@ -1009,10 +1021,10 @@
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -1021,10 +1033,10 @@
         <v>1.0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1036,16 +1048,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>177.0</v>
+        <v>183.0</v>
       </c>
       <c r="X3" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="Y3" t="n">
         <v>38.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>60.4</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="4">
@@ -1053,28 +1065,28 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>2250.0</v>
+        <v>2276.0</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J4" t="n">
         <v>28.9</v>
@@ -1133,28 +1145,28 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>788.0</v>
+        <v>798.0</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J5" t="n">
         <v>30.9</v>
@@ -1213,31 +1225,31 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>745.0</v>
+        <v>755.0</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J6" t="n">
-        <v>16.4</v>
+        <v>17.4</v>
       </c>
       <c r="K6" t="n">
         <v>6.0</v>
@@ -1249,22 +1261,22 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O6" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="P6" t="n">
         <v>2.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="R6" t="n">
         <v>9.0</v>
       </c>
       <c r="S6" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1276,16 +1288,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="X6" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>51.1</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="7">
@@ -1293,31 +1305,31 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>997.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J7" t="n">
-        <v>14.0</v>
+        <v>14.3</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -1329,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O7" t="n">
         <v>33.0</v>
@@ -1344,7 +1356,7 @@
         <v>5.0</v>
       </c>
       <c r="S7" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -1356,16 +1368,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="X7" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y7" t="n">
         <v>36.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
@@ -1373,31 +1385,31 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>2571.0</v>
+        <v>2603.0</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J8" t="n">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="K8" t="n">
         <v>6.0</v>
@@ -1409,7 +1421,7 @@
         <v>1.0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O8" t="n">
         <v>3.0</v>
@@ -1421,10 +1433,10 @@
         <v>8.0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -1436,16 +1448,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>57.7</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="9">
@@ -1456,28 +1468,28 @@
         <v>83.0</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J9" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="K9" t="n">
         <v>5.0</v>
@@ -1489,7 +1501,7 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="O9" t="n">
         <v>35.0</v>
@@ -1504,7 +1516,7 @@
         <v>14.0</v>
       </c>
       <c r="S9" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="T9" t="n">
         <v>2.0</v>
@@ -1516,16 +1528,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="X9" t="n">
         <v>14.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>40.0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="10">
@@ -1533,28 +1545,28 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>206.0</v>
+        <v>208.0</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J10" t="n">
         <v>15.0</v>
@@ -1613,31 +1625,31 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>955.0</v>
+        <v>968.0</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J11" t="n">
-        <v>32.8</v>
+        <v>33.8</v>
       </c>
       <c r="K11" t="n">
         <v>5.0</v>
@@ -1658,13 +1670,13 @@
         <v>3.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="R11" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1676,16 +1688,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.0</v>
+        <v>104.0</v>
       </c>
       <c r="X11" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>58.4</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="12">
@@ -1693,31 +1705,31 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>2098.0</v>
+        <v>2123.0</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J12" t="n">
-        <v>15.0</v>
+        <v>15.3</v>
       </c>
       <c r="K12" t="n">
         <v>5.0</v>
@@ -1735,7 +1747,7 @@
         <v>13.0</v>
       </c>
       <c r="P12" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q12" t="n">
         <v>6.0</v>
@@ -1756,16 +1768,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="X12" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="13">
@@ -1773,31 +1785,31 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>725.0</v>
+        <v>735.0</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J13" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="K13" t="n">
         <v>5.0</v>
@@ -1812,7 +1824,7 @@
         <v>17.0</v>
       </c>
       <c r="O13" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="P13" t="n">
         <v>0.0</v>
@@ -1821,10 +1833,10 @@
         <v>6.0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="S13" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="T13" t="n">
         <v>0.0</v>
@@ -1836,16 +1848,16 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>166.0</v>
+        <v>171.0</v>
       </c>
       <c r="X13" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="Y13" t="n">
         <v>55.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>62.1</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="14">
@@ -1853,28 +1865,28 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1095.0</v>
+        <v>1108.0</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J14" t="n">
         <v>12.3</v>
@@ -1933,31 +1945,31 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1143.0</v>
+        <v>1156.0</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J15" t="n">
-        <v>9.2</v>
+        <v>9.9</v>
       </c>
       <c r="K15" t="n">
         <v>5.0</v>
@@ -1969,10 +1981,10 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O15" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="P15" t="n">
         <v>1.0</v>
@@ -1984,7 +1996,7 @@
         <v>7.0</v>
       </c>
       <c r="S15" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="T15" t="n">
         <v>2.0</v>
@@ -1996,16 +2008,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="X15" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y15" t="n">
         <v>24.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>50.0</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="16">
@@ -2013,31 +2025,31 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1353.0</v>
+        <v>1368.0</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J16" t="n">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="K16" t="n">
         <v>5.0</v>
@@ -2049,7 +2061,7 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="O16" t="n">
         <v>23.0</v>
@@ -2058,13 +2070,13 @@
         <v>4.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="S16" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -2076,7 +2088,7 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>135.0</v>
+        <v>144.0</v>
       </c>
       <c r="X16" t="n">
         <v>26.0</v>
@@ -2093,31 +2105,31 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2786.0</v>
+        <v>2820.0</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="J17" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="K17" t="n">
         <v>5.0</v>
@@ -2129,7 +2141,7 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="O17" t="n">
         <v>15.0</v>
@@ -2138,13 +2150,13 @@
         <v>2.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="R17" t="n">
         <v>5.0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="T17" t="n">
         <v>0.0</v>
@@ -2156,7 +2168,7 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>94.0</v>
+        <v>99.0</v>
       </c>
       <c r="X17" t="n">
         <v>9.0</v>
@@ -2173,31 +2185,31 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>322.0</v>
+        <v>324.0</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J18" t="n">
-        <v>17.4</v>
+        <v>18.2</v>
       </c>
       <c r="K18" t="n">
         <v>4.0</v>
@@ -2209,7 +2221,7 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="O18" t="n">
         <v>22.0</v>
@@ -2218,13 +2230,13 @@
         <v>0.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="S18" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="T18" t="n">
         <v>0.0</v>
@@ -2236,16 +2248,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>107.0</v>
+        <v>111.0</v>
       </c>
       <c r="X18" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y18" t="n">
         <v>48.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>36.0</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="19">
@@ -2253,28 +2265,28 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>1259.0</v>
+        <v>1273.0</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I19" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J19" t="n">
         <v>15.3</v>
@@ -2333,31 +2345,31 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>1377.0</v>
+        <v>1392.0</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J20" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="K20" t="n">
         <v>4.0</v>
@@ -2369,7 +2381,7 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="O20" t="n">
         <v>54.0</v>
@@ -2399,13 +2411,13 @@
         <v>69.0</v>
       </c>
       <c r="X20" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>43.0</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="21">
@@ -2413,31 +2425,31 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2148.0</v>
+        <v>2174.0</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J21" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="K21" t="n">
         <v>4.0</v>
@@ -2458,7 +2470,7 @@
         <v>2.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="R21" t="n">
         <v>11.0</v>
@@ -2476,16 +2488,16 @@
         <v>1.0</v>
       </c>
       <c r="W21" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="X21" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y21" t="n">
         <v>20.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>28.6</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="22">
@@ -2493,28 +2505,28 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2323.0</v>
+        <v>2352.0</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J22" t="n">
         <v>8.5</v>
@@ -2573,28 +2585,28 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2486.0</v>
+        <v>2518.0</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J23" t="n">
         <v>12.4</v>
@@ -2653,28 +2665,28 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>1340.0</v>
+        <v>1354.0</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J24" t="n">
         <v>24.2</v>
@@ -2733,31 +2745,31 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>1486.0</v>
+        <v>1504.0</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J25" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="K25" t="n">
         <v>4.0</v>
@@ -2769,16 +2781,16 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="O25" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="P25" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="R25" t="n">
         <v>9.0</v>
@@ -2787,7 +2799,7 @@
         <v>13.0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U25" t="n">
         <v>0.0</v>
@@ -2796,16 +2808,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="X25" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Y25" t="n">
         <v>21.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>44.7</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="26">
@@ -2813,31 +2825,31 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>229.0</v>
+        <v>231.0</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J26" t="n">
-        <v>35.6</v>
+        <v>36.6</v>
       </c>
       <c r="K26" t="n">
         <v>3.0</v>
@@ -2849,7 +2861,7 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="O26" t="n">
         <v>4.0</v>
@@ -2864,7 +2876,7 @@
         <v>23.0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -2876,16 +2888,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="X26" t="n">
-        <v>91.0</v>
+        <v>93.0</v>
       </c>
       <c r="Y26" t="n">
         <v>70.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>56.5</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="27">
@@ -2893,31 +2905,31 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1981.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="K27" t="n">
         <v>3.0</v>
@@ -2956,7 +2968,7 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="X27" t="n">
         <v>12.0</v>
@@ -2973,31 +2985,31 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>2022.0</v>
+        <v>2046.0</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J28" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="K28" t="n">
         <v>3.0</v>
@@ -3009,7 +3021,7 @@
         <v>0.0</v>
       </c>
       <c r="N28" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="O28" t="n">
         <v>7.0</v>
@@ -3024,7 +3036,7 @@
         <v>16.0</v>
       </c>
       <c r="S28" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="T28" t="n">
         <v>0.0</v>
@@ -3036,7 +3048,7 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="X28" t="n">
         <v>36.0</v>
@@ -3053,31 +3065,31 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>2265.0</v>
+        <v>2293.0</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J29" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="K29" t="n">
         <v>3.0</v>
@@ -3089,7 +3101,7 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="O29" t="n">
         <v>9.0</v>
@@ -3098,7 +3110,7 @@
         <v>2.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="R29" t="n">
         <v>22.0</v>
@@ -3116,16 +3128,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>163.0</v>
+        <v>165.0</v>
       </c>
       <c r="X29" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>58.0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="30">
@@ -3133,31 +3145,31 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>2343.0</v>
+        <v>2373.0</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J30" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="K30" t="n">
         <v>3.0</v>
@@ -3169,19 +3181,19 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="P30" t="n">
         <v>4.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R30" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="S30" t="n">
         <v>32.0</v>
@@ -3196,16 +3208,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>157.0</v>
+        <v>160.0</v>
       </c>
       <c r="X30" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>67.8</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="31">
@@ -3213,31 +3225,31 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>922.0</v>
+        <v>935.0</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J31" t="n">
-        <v>27.0</v>
+        <v>27.7</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3258,13 +3270,13 @@
         <v>3.0</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.0</v>
+        <v>138.0</v>
       </c>
       <c r="R31" t="n">
         <v>25.0</v>
       </c>
       <c r="S31" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3276,7 +3288,7 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>153.0</v>
+        <v>161.0</v>
       </c>
       <c r="X31" t="n">
         <v>25.0</v>
@@ -3293,31 +3305,31 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>308.0</v>
+        <v>310.0</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J32" t="n">
-        <v>4.0</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.0</v>
@@ -3329,10 +3341,10 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="O32" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P32" t="n">
         <v>2.0</v>
@@ -3362,10 +3374,10 @@
         <v>14.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>51.9</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="33">
@@ -3373,28 +3385,28 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>2586.0</v>
+        <v>2618.0</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J33" t="n">
         <v>3.1</v>
@@ -3453,28 +3465,28 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>2655.0</v>
+        <v>2689.0</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J34" t="n">
         <v>4.0</v>
@@ -3533,28 +3545,28 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>190.0</v>
+        <v>192.0</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J35" t="n">
         <v>4.2</v>
@@ -3596,7 +3608,7 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="X35" t="n">
         <v>4.0</v>
@@ -3613,31 +3625,31 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>651.0</v>
+        <v>659.0</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J36" t="n">
-        <v>20.9</v>
+        <v>21.7</v>
       </c>
       <c r="K36" t="n">
         <v>1.0</v>
@@ -3652,13 +3664,13 @@
         <v>17.0</v>
       </c>
       <c r="O36" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="P36" t="n">
         <v>6.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="R36" t="n">
         <v>7.0</v>
@@ -3676,7 +3688,7 @@
         <v>1.0</v>
       </c>
       <c r="W36" t="n">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="X36" t="n">
         <v>37.0</v>
@@ -3693,31 +3705,31 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1748.0</v>
+        <v>1768.0</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I37" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3756,7 +3768,7 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="X37" t="n">
         <v>7.0</v>
@@ -3773,31 +3785,31 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>2344.0</v>
+        <v>2374.0</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I38" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J38" t="n">
-        <v>15.0</v>
+        <v>15.8</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3809,10 +3821,10 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="P38" t="n">
         <v>8.0</v>
@@ -3821,7 +3833,7 @@
         <v>6.0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S38" t="n">
         <v>9.0</v>
@@ -3836,16 +3848,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="X38" t="n">
         <v>21.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>40.4</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="39">
@@ -3853,31 +3865,31 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>291.0</v>
+        <v>293.0</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
         <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J39" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
@@ -3889,16 +3901,16 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O39" t="n">
         <v>5.0</v>
       </c>
-      <c r="O39" t="n">
-        <v>2.0</v>
-      </c>
       <c r="P39" t="n">
         <v>0.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R39" t="n">
         <v>1.0</v>
@@ -3916,7 +3928,7 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="X39" t="n">
         <v>1.0</v>
@@ -3933,28 +3945,28 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>409.0</v>
+        <v>413.0</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J40" t="n">
         <v>0.1</v>
@@ -4013,28 +4025,28 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>571.0</v>
+        <v>578.0</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J41" t="n">
         <v>0.1</v>
@@ -4093,28 +4105,28 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>678.0</v>
+        <v>686.0</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J42" t="n">
         <v>0.2</v>
@@ -4173,31 +4185,31 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>837.0</v>
+        <v>847.0</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J43" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -4236,7 +4248,7 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="X43" t="n">
         <v>5.0</v>
@@ -4253,28 +4265,28 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1468.0</v>
+        <v>1486.0</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I44" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J44" t="n">
         <v>0.1</v>
@@ -4333,31 +4345,31 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>2103.0</v>
+        <v>2128.0</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J45" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -4369,16 +4381,16 @@
         <v>0.0</v>
       </c>
       <c r="N45" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="O45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P45" t="n">
         <v>0.0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R45" t="n">
         <v>1.0</v>
@@ -4396,16 +4408,16 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="X45" t="n">
         <v>2.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>20.0</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="46">
@@ -4413,28 +4425,28 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>339.0</v>
+        <v>341.0</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J46" t="n">
         <v>1.0</v>
@@ -4476,7 +4488,7 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="X46" t="n">
         <v>1.0</v>
@@ -4493,31 +4505,31 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>465.0</v>
+        <v>471.0</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J47" t="n">
-        <v>25.0</v>
+        <v>25.9</v>
       </c>
       <c r="K47" t="n">
         <v>0.0</v>
@@ -4556,7 +4568,7 @@
         <v>0.0</v>
       </c>
       <c r="W47" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="X47" t="n">
         <v>7.0</v>
@@ -4573,28 +4585,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>1514.0</v>
+        <v>1532.0</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I48" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J48" t="n">
         <v>0.3</v>
@@ -4653,28 +4665,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>1707.0</v>
+        <v>1726.0</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -4733,28 +4745,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>1821.0</v>
+        <v>1842.0</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J50" t="n">
         <v>4.5</v>
@@ -4813,28 +4825,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>1829.0</v>
+        <v>1850.0</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H51" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J51" t="n">
         <v>11.0</v>
@@ -4893,28 +4905,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>1852.0</v>
+        <v>1874.0</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J52" t="n">
         <v>1.2</v>
@@ -4966,6 +4978,86 @@
       </c>
       <c r="Z52" t="n">
         <v>75.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2281.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" t="s">
+        <v>215</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -5008,79 +5100,79 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="S1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="T1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="U1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="V1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="W1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="X1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Y1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Z1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AA1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AD1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AE1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AG1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AH1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2">
@@ -5088,40 +5180,40 @@
         <v>39</v>
       </c>
       <c r="B2" t="n">
-        <v>1353.0</v>
+        <v>1368.0</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J2" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>27.2</v>
+        <v>28.2</v>
       </c>
       <c r="N2" t="n">
         <v>12.0</v>
@@ -5154,34 +5246,34 @@
         <v>4.8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>76.0</v>
+        <v>78.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.0</v>
+        <v>166.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0</v>
+        <v>187.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AD2" t="n">
         <v>0.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="AH2" t="n">
         <v>0.23</v>
@@ -5192,52 +5284,52 @@
         <v>61</v>
       </c>
       <c r="B3" t="n">
-        <v>2344.0</v>
+        <v>2374.0</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K3" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>15.0</v>
+        <v>15.8</v>
       </c>
       <c r="N3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O3" t="n">
         <v>6.0</v>
       </c>
       <c r="P3" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="R3" t="n">
         <v>0.0</v>
@@ -5252,43 +5344,43 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>6.0</v>
+        <v>6.1</v>
       </c>
       <c r="W3" t="n">
-        <v>6.0</v>
+        <v>6.1</v>
       </c>
       <c r="X3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.0</v>
+        <v>41.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.0</v>
+        <v>165.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AE3" t="n">
         <v>1.14</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AG3" t="n">
         <v>1.14</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -5296,49 +5388,49 @@
         <v>59</v>
       </c>
       <c r="B4" t="n">
-        <v>651.0</v>
+        <v>659.0</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>20.9</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
         <v>10.0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q4" t="n">
         <v>9.0</v>
@@ -5356,43 +5448,43 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="W4" t="n">
-        <v>6.0</v>
+        <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.0</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.0</v>
+        <v>11.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>81.0</v>
+        <v>86.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.0</v>
+        <v>120.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.0</v>
+        <v>214.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -5400,52 +5492,52 @@
         <v>48</v>
       </c>
       <c r="B5" t="n">
-        <v>1486.0</v>
+        <v>1504.0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J5" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K5" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>19.4</v>
+        <v>20.4</v>
       </c>
       <c r="N5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O5" t="n">
         <v>6.0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="R5" t="n">
         <v>0.0</v>
@@ -5460,43 +5552,43 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.0</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.6</v>
+        <v>13.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.0</v>
+        <v>214.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -5504,40 +5596,40 @@
         <v>43</v>
       </c>
       <c r="B6" t="n">
-        <v>1377.0</v>
+        <v>1392.0</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J6" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="N6" t="n">
         <v>7.0</v>
@@ -5570,19 +5662,19 @@
         <v>9.2</v>
       </c>
       <c r="X6" t="n">
-        <v>2.8</v>
+        <v>3.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.0</v>
+        <v>126.0</v>
       </c>
       <c r="AC6" t="n">
         <v>0.27</v>
@@ -5591,7 +5683,7 @@
         <v>0.04</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AF6" t="n">
         <v>0.23</v>
@@ -5600,7 +5692,7 @@
         <v>0.27</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -5608,28 +5700,28 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>788.0</v>
+        <v>798.0</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J7" t="n">
         <v>35.0</v>
@@ -5709,156 +5801,156 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B8" t="n">
-        <v>2098.0</v>
+        <v>2046.0</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J8" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="K8" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>15.0</v>
+        <v>21.8</v>
       </c>
       <c r="N8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P8" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q8" t="n">
         <v>4.0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T8" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="W8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9</v>
+        <v>4.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.0</v>
+        <v>46.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.0</v>
+        <v>120.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="AC8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.33</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>2022.0</v>
+        <v>2123.0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J9" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>20.8</v>
+        <v>15.3</v>
       </c>
       <c r="N9" t="n">
         <v>5.0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q9" t="n">
         <v>4.0</v>
@@ -5870,49 +5962,49 @@
         <v>1.0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U9" t="n">
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="W9" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="X9" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.0</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>46.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.29</v>
+        <v>0.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10">
@@ -5920,31 +6012,31 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>1981.0</v>
+        <v>2005.0</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J10" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K10" t="n">
         <v>21.0</v>
@@ -5953,7 +6045,7 @@
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N10" t="n">
         <v>3.0</v>
@@ -5980,16 +6072,16 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z10" t="n">
         <v>19.0</v>
@@ -6024,31 +6116,31 @@
         <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>1748.0</v>
+        <v>1768.0</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J11" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K11" t="n">
         <v>12.0</v>
@@ -6057,7 +6149,7 @@
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="N11" t="n">
         <v>3.0</v>
@@ -6090,37 +6182,37 @@
         <v>5.0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y11" t="n">
         <v>8.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>113.0</v>
+        <v>114.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.24</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AF11" t="n">
         <v>0.24</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
@@ -6131,37 +6223,37 @@
         <v>83.0</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J12" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="N12" t="n">
         <v>2.0</v>
@@ -6200,10 +6292,10 @@
         <v>5.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB12" t="n">
         <v>137.0</v>
@@ -6232,28 +6324,28 @@
         <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>206.0</v>
+        <v>208.0</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J13" t="n">
         <v>21.0</v>
@@ -6336,40 +6428,40 @@
         <v>29</v>
       </c>
       <c r="B14" t="n">
-        <v>745.0</v>
+        <v>755.0</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J14" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K14" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>16.4</v>
+        <v>17.4</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -6396,25 +6488,25 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>2.0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.9</v>
+        <v>2.0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z14" t="n">
         <v>37.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>46.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.12</v>
@@ -6432,7 +6524,7 @@
         <v>0.12</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
@@ -6440,40 +6532,40 @@
         <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>955.0</v>
+        <v>968.0</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J15" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>32.8</v>
+        <v>33.8</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -6512,13 +6604,13 @@
         <v>3.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>113.0</v>
+        <v>116.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
       <c r="AC15" t="n">
         <v>0.06</v>
@@ -6544,28 +6636,28 @@
         <v>45</v>
       </c>
       <c r="B16" t="n">
-        <v>2323.0</v>
+        <v>2352.0</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J16" t="n">
         <v>25.0</v>
@@ -6648,40 +6740,40 @@
         <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>308.0</v>
+        <v>310.0</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K17" t="n">
         <v>3.0</v>
       </c>
       <c r="L17" t="n">
-        <v>359.0</v>
+        <v>377.0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.0</v>
+        <v>4.2</v>
       </c>
       <c r="N17" t="n">
         <v>2.0</v>
@@ -6708,43 +6800,43 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="X17" t="n">
         <v>0.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.1</v>
+        <v>2.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA17" t="n">
         <v>10.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AD17" t="n">
         <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
@@ -6752,28 +6844,28 @@
         <v>73</v>
       </c>
       <c r="B18" t="n">
-        <v>1821.0</v>
+        <v>1842.0</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J18" t="n">
         <v>18.0</v>
@@ -6856,40 +6948,40 @@
         <v>40</v>
       </c>
       <c r="B19" t="n">
-        <v>2786.0</v>
+        <v>2820.0</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="J19" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="N19" t="n">
         <v>2.0</v>
@@ -6925,16 +7017,16 @@
         <v>1.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>131.0</v>
+        <v>132.0</v>
       </c>
       <c r="AC19" t="n">
         <v>0.1</v>
@@ -6943,13 +7035,13 @@
         <v>0.05</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AF19" t="n">
         <v>0.1</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH19" t="n">
         <v>0.11</v>
@@ -6960,28 +7052,28 @@
         <v>65</v>
       </c>
       <c r="B20" t="n">
-        <v>678.0</v>
+        <v>686.0</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J20" t="n">
         <v>2.0</v>
@@ -7064,31 +7156,31 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>997.0</v>
+        <v>1010.0</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J21" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K21" t="n">
         <v>13.0</v>
@@ -7097,7 +7189,7 @@
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>14.0</v>
+        <v>14.3</v>
       </c>
       <c r="N21" t="n">
         <v>1.0</v>
@@ -7139,10 +7231,10 @@
         <v>25.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.07</v>
@@ -7160,7 +7252,7 @@
         <v>0.14</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
@@ -7168,31 +7260,31 @@
         <v>44</v>
       </c>
       <c r="B22" t="n">
-        <v>2148.0</v>
+        <v>2174.0</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J22" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K22" t="n">
         <v>17.0</v>
@@ -7201,7 +7293,7 @@
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
@@ -7234,34 +7326,34 @@
         <v>0.8</v>
       </c>
       <c r="X22" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Y22" t="n">
         <v>1.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AD22" t="n">
         <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AH22" t="n">
         <v>0.06</v>
@@ -7272,40 +7364,40 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>2155.0</v>
+        <v>2181.0</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J23" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K23" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
       <c r="M23" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="N23" t="n">
         <v>1.0</v>
@@ -7344,10 +7436,10 @@
         <v>1.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>120.0</v>
+        <v>121.0</v>
       </c>
       <c r="AB23" t="n">
         <v>14.0</v>
@@ -7376,28 +7468,28 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>2486.0</v>
+        <v>2518.0</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J24" t="n">
         <v>19.0</v>
@@ -7480,28 +7572,28 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>190.0</v>
+        <v>192.0</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J25" t="n">
         <v>14.0</v>
@@ -7584,40 +7676,40 @@
         <v>38</v>
       </c>
       <c r="B26" t="n">
-        <v>1143.0</v>
+        <v>1156.0</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J26" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K26" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="L26" t="n">
-        <v>829.0</v>
+        <v>891.0</v>
       </c>
       <c r="M26" t="n">
-        <v>9.2</v>
+        <v>9.9</v>
       </c>
       <c r="N26" t="n">
         <v>1.0</v>
@@ -7644,40 +7736,40 @@
         <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="W26" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="X26" t="n">
         <v>0.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AH26" t="n">
         <v>0.27</v>
@@ -7688,28 +7780,28 @@
         <v>47</v>
       </c>
       <c r="B27" t="n">
-        <v>1340.0</v>
+        <v>1354.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J27" t="n">
         <v>30.0</v>
@@ -7792,40 +7884,40 @@
         <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>229.0</v>
+        <v>231.0</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J28" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K28" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>35.6</v>
+        <v>36.6</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -7867,7 +7959,7 @@
         <v>28.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>94.0</v>
+        <v>96.0</v>
       </c>
       <c r="AB28" t="n">
         <v>3.0</v>
@@ -7896,40 +7988,40 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>291.0</v>
+        <v>293.0</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
         <v>155</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L29" t="n">
-        <v>129.0</v>
+        <v>205.0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -7956,25 +8048,25 @@
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Z29" t="n">
         <v>3.0</v>
       </c>
       <c r="AA29" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC29" t="n">
         <v>0.0</v>
@@ -7992,7 +8084,7 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="30">
@@ -8000,40 +8092,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>322.0</v>
+        <v>324.0</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J30" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K30" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L30" t="e">
         <v>#N/A</v>
       </c>
       <c r="M30" t="n">
-        <v>17.4</v>
+        <v>18.2</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -8072,10 +8164,10 @@
         <v>1.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="AB30" t="n">
         <v>11.0</v>
@@ -8104,28 +8196,28 @@
         <v>63</v>
       </c>
       <c r="B31" t="n">
-        <v>409.0</v>
+        <v>413.0</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J31" t="n">
         <v>1.0</v>
@@ -8208,28 +8300,28 @@
         <v>64</v>
       </c>
       <c r="B32" t="n">
-        <v>571.0</v>
+        <v>578.0</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J32" t="n">
         <v>1.0</v>
@@ -8312,40 +8404,40 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>837.0</v>
+        <v>847.0</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I33" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J33" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
       <c r="M33" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -8416,40 +8508,40 @@
         <v>54</v>
       </c>
       <c r="B34" t="n">
-        <v>922.0</v>
+        <v>935.0</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J34" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K34" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="L34" t="e">
         <v>#N/A</v>
       </c>
       <c r="M34" t="n">
-        <v>27.0</v>
+        <v>27.7</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -8488,13 +8580,13 @@
         <v>5.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>99.0</v>
+        <v>101.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
@@ -8520,28 +8612,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>1259.0</v>
+        <v>1273.0</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J35" t="n">
         <v>23.0</v>
@@ -8624,28 +8716,28 @@
         <v>67</v>
       </c>
       <c r="B36" t="n">
-        <v>1468.0</v>
+        <v>1486.0</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J36" t="n">
         <v>1.0</v>
@@ -8728,40 +8820,40 @@
         <v>68</v>
       </c>
       <c r="B37" t="n">
-        <v>2103.0</v>
+        <v>2128.0</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J37" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
       </c>
       <c r="L37" t="n">
-        <v>164.0</v>
+        <v>200.0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -8788,40 +8880,40 @@
         <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="X37" t="n">
         <v>1.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AH37" t="n">
         <v>0.22</v>
@@ -8832,40 +8924,40 @@
         <v>26</v>
       </c>
       <c r="B38" t="n">
-        <v>2118.0</v>
+        <v>2144.0</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J38" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K38" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="L38" t="e">
         <v>#N/A</v>
       </c>
       <c r="M38" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -8907,10 +8999,10 @@
         <v>45.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
@@ -8936,28 +9028,28 @@
         <v>56</v>
       </c>
       <c r="B39" t="n">
-        <v>2586.0</v>
+        <v>2618.0</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J39" t="n">
         <v>6.0</v>
@@ -9040,28 +9132,28 @@
         <v>57</v>
       </c>
       <c r="B40" t="n">
-        <v>2655.0</v>
+        <v>2689.0</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J40" t="n">
         <v>14.0</v>
@@ -9144,28 +9236,28 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>339.0</v>
+        <v>341.0</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J41" t="n">
         <v>2.0</v>
@@ -9248,40 +9340,40 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>465.0</v>
+        <v>471.0</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K42" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L42" t="e">
         <v>#N/A</v>
       </c>
       <c r="M42" t="n">
-        <v>25.0</v>
+        <v>25.9</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -9352,40 +9444,40 @@
         <v>36</v>
       </c>
       <c r="B43" t="n">
-        <v>725.0</v>
+        <v>735.0</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J43" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K43" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="L43" t="e">
         <v>#N/A</v>
       </c>
       <c r="M43" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -9424,13 +9516,13 @@
         <v>1.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
@@ -9456,28 +9548,28 @@
         <v>37</v>
       </c>
       <c r="B44" t="n">
-        <v>1095.0</v>
+        <v>1108.0</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I44" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J44" t="n">
         <v>22.0</v>
@@ -9522,10 +9614,10 @@
         <v>0.3</v>
       </c>
       <c r="X44" t="n">
-        <v>2.1</v>
+        <v>2.0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Z44" t="n">
         <v>19.0</v>
@@ -9560,28 +9652,28 @@
         <v>71</v>
       </c>
       <c r="B45" t="n">
-        <v>1514.0</v>
+        <v>1532.0</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J45" t="n">
         <v>4.0</v>
@@ -9664,28 +9756,28 @@
         <v>72</v>
       </c>
       <c r="B46" t="n">
-        <v>1707.0</v>
+        <v>1726.0</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I46" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J46" t="n">
         <v>1.0</v>
@@ -9768,28 +9860,28 @@
         <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>1829.0</v>
+        <v>1850.0</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J47" t="n">
         <v>11.0</v>
@@ -9872,28 +9964,28 @@
         <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>1852.0</v>
+        <v>1874.0</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J48" t="n">
         <v>10.0</v>
@@ -9976,28 +10068,28 @@
         <v>27</v>
       </c>
       <c r="B49" t="n">
-        <v>2250.0</v>
+        <v>2276.0</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I49" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J49" t="n">
         <v>30.0</v>
@@ -10077,52 +10169,52 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B50" t="n">
-        <v>2265.0</v>
+        <v>2281.0</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H50" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="I50" t="s">
         <v>215</v>
       </c>
       <c r="J50" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="K50" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="L50" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.0</v>
       </c>
       <c r="M50" t="n">
-        <v>25.9</v>
+        <v>0.1</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
       </c>
       <c r="O50" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P50" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q50" t="n">
         <v>0.0</v>
@@ -10134,99 +10226,99 @@
         <v>0.0</v>
       </c>
       <c r="T50" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U50" t="n">
         <v>0.0</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W50" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X50" t="n">
-        <v>1.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y50" t="n">
-        <v>2.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z50" t="n">
-        <v>54.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA50" t="n">
-        <v>134.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" t="n">
-        <v>125.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" t="n">
         <v>0.0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AF50" t="n">
         <v>0.0</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>2343.0</v>
+        <v>2293.0</v>
       </c>
       <c r="C51" t="s">
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I51" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J51" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="K51" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
       </c>
       <c r="O51" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="P51" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q51" t="n">
         <v>0.0</v>
@@ -10244,146 +10336,250 @@
         <v>0.0</v>
       </c>
       <c r="V51" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="W51" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X51" t="n">
-        <v>1.0</v>
+        <v>1.7</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>26.0</v>
+        <v>54.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>108.0</v>
+        <v>135.0</v>
       </c>
       <c r="AB51" t="n">
-        <v>25.0</v>
+        <v>125.0</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AF51" t="n">
         <v>0.0</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2373.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" t="s">
+        <v>227</v>
+      </c>
+      <c r="J52" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="L52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M52" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
         <v>31</v>
       </c>
-      <c r="B52" t="n">
-        <v>2571.0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" t="s">
-        <v>158</v>
-      </c>
-      <c r="G52" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" t="s">
-        <v>216</v>
-      </c>
-      <c r="J52" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>801.0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T52" t="n">
+      <c r="B53" t="n">
+        <v>2603.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" t="s">
+        <v>219</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>891.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" t="n">
         <v>6.0</v>
       </c>
-      <c r="U52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V52" t="n">
+      <c r="U53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V53" t="n">
         <v>0.1</v>
       </c>
-      <c r="W52" t="n">
+      <c r="W53" t="n">
         <v>0.1</v>
       </c>
-      <c r="X52" t="n">
+      <c r="X53" t="n">
         <v>0.1</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Y53" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="Z53" t="n">
         <v>6.0</v>
       </c>
-      <c r="AA52" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="AB52" t="n">
+      <c r="AA53" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="AB53" t="n">
         <v>9.0</v>
       </c>
-      <c r="AC52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH52" t="n">
+      <c r="AC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH53" t="n">
         <v>0.01</v>
       </c>
     </row>
